--- a/pasta_cooked.xlsx
+++ b/pasta_cooked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\github\pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA94126-F40C-45A5-98B3-1FE8FC74139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7CFBC-7A74-40A8-BA3B-3D83F8E7BDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{B609E244-91B8-4FAF-98D8-A0BCE274054A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>e</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>big fire</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>30.11.25</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -491,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E39E368-72E2-4A2A-AB8C-47D3B9090AB1}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -518,8 +530,11 @@
       <c r="F1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -539,7 +554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -559,7 +574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -579,7 +594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -599,7 +614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -619,7 +634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -639,7 +654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -659,7 +674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -679,7 +694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -699,7 +714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -719,7 +734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -739,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -759,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -779,7 +794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -799,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -819,7 +834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -839,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -857,6 +872,32 @@
       </c>
       <c r="F18" t="s">
         <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>423</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
